--- a/mitochondria distance/012825_mito_OA/3K_no_OA_analysis_by_image.xlsx
+++ b/mitochondria distance/012825_mito_OA/3K_no_OA_analysis_by_image.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,15 +458,399 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>3K_mitotracker_01</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+          <t>3K_Lipidtox_01</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="n">
         <v>0</v>
       </c>
-      <c r="C2" t="inlineStr"/>
       <c r="D2" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>3K_mitotracker_01</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3K_mitotracker_Lipidtox_01</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="n">
+        <v>0.1510241516355854</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.03769387628993388</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>3K_mitotracker_Lipidtox_02</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="n">
+        <v>0.1008403361344538</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.0192960489705064</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>3K_mitotracker_Lipidtox_03</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.1016260162601626</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.1245520997563423</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.002565747273893521</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>3K_mitotracker_Lipidtox_04</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.03087649402390438</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.1832225021684358</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.0163375880866906</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>3K_mitotracker_Lipidtox_05</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.1997008227374719</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.2061210294458614</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.008848508789255383</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>3K_mitotracker_Lipidtox_06</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.3102129600392941</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.03441433351197114</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>3K_mitotracker_Lipidtox_07</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.2071907373552712</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.08877916545648175</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.0537027954879843</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>3K_mitotracker_Lipidtox_08</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.2308244871897198</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.008970895560426118</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>3K_mitotracker_Lipidtox_09</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.1214285714285714</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.1257873519778282</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.08951796958781312</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>3K_mitotracker_Lipidtox_10</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.0350187600500268</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.06977425974787452</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.03445611323803168</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>3K_mitotracker_Lipidtox_11</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.08449612403100776</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.04631979695431472</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.03007630073011906</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>3K_mitotracker_Lipidtox_12</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.05307262569832402</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.108565414507772</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.05995092156406169</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>3K_mitotracker_Lipidtox_13</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>3K_mitotracker_Lipidtox_14</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.3742997198879552</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.4783499122293739</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.09410777549878799</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>3K_mitotracker_Lipidtox_15</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.2351568576613949</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.2240899049082701</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.0887369228509409</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>3K_mitotracker_Lipidtox_16</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.1354134165366615</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.1272133402097301</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.01177492520027024</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>3K_mitotracker_Lipidtox_17</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.1526416122004357</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.3369970966403982</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.01053001053001053</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>3K_mitotracker_Lipidtox_18</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.08995937318630295</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.1836113615870153</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.05058079978352887</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>3K_mitotracker_Lipidtox_19</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.03109508787742226</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.1831269795565793</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.01594224949704992</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>3K_mitotracker_Lipidtox_20</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="n">
+        <v>0.2474508686983765</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.03414677750960936</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>3K_mitotracker_Lipidtox_21</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.2091224924352796</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.3626504304809018</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.02709691617837199</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>3K_mitotracker_Lipidtox_22</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="n">
+        <v>0.09502943995618239</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.06938726567808466</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>3K_mitotracker_Lipidtox_23</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.4561115668580804</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.3143523143523144</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.1463444934467979</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>3K_mitotracker_Lipidtox_24</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.01590330788804071</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.4356502054162824</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.08535272772003198</v>
       </c>
     </row>
   </sheetData>
